--- a/jour11.xlsx
+++ b/jour11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Fortes', 'Valencia', 'Medina']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Balde']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Magnetti', 'Brassier']</t>
-  </si>
-  <si>
-    <t>['Girotto', 'Simon']</t>
-  </si>
-  <si>
-    <t>['Assignon', 'Santamaria', 'Santamaria', 'Rodon']</t>
+    <t>['Yoro', 'Yoro']</t>
+  </si>
+  <si>
+    <t>['Boyer', 'Rajot', 'Cisse', 'Massolin']</t>
+  </si>
+  <si>
+    <t>['Germain', 'Wahi', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Messi']</t>
+  </si>
+  <si>
+    <t>['Diallo', 'Vidal']</t>
+  </si>
+  <si>
+    <t>['Odobert']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Terrier', 'Majer']</t>
+  </si>
+  <si>
+    <t>['Diop']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Clauss']</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>['Mothiba']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'Dejaegere', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Blas', 'Castelletto', 'Blas']</t>
+  </si>
+  <si>
+    <t>['Le_Goff', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Jeanvier']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Beka', 'Attal']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Massolin', 'Versini', 'Gastien']</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Clauss', 'Payet']</t>
-  </si>
-  <si>
-    <t>['Cabella', 'Cabella']</t>
-  </si>
-  <si>
-    <t>['Diallo']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Mbappe']</t>
-  </si>
-  <si>
-    <t>['Cajuste', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Dallinga']</t>
-  </si>
-  <si>
-    <t>['Ponceau']</t>
-  </si>
-  <si>
-    <t>['Sima', 'Alioui', 'Bamba']</t>
-  </si>
-  <si>
-    <t>['Embolo', 'Sibide', 'Henrique', 'Embolo']</t>
+    <t>['Bamba', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Pele', 'Jakobs', 'Embolo']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Abdelhamid', 'Balogin']</t>
   </si>
 </sst>
 </file>
@@ -546,28 +552,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -575,25 +581,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -604,28 +610,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -633,28 +639,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -677,10 +683,10 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -691,28 +697,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -720,25 +726,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -749,28 +755,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -778,25 +784,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -807,28 +813,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour11.xlsx
+++ b/jour11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Yoro', 'Yoro']</t>
-  </si>
-  <si>
-    <t>['Boyer', 'Rajot', 'Cisse', 'Massolin']</t>
-  </si>
-  <si>
-    <t>['Germain', 'Wahi', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Messi']</t>
-  </si>
-  <si>
-    <t>['Diallo', 'Vidal']</t>
+    <t>['Kipembe', 'Soler']</t>
   </si>
   <si>
     <t>['Odobert']</t>
   </si>
   <si>
-    <t>['Rodon', 'Terrier', 'Majer']</t>
-  </si>
-  <si>
-    <t>['Diop']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Clauss']</t>
+    <t>['Cajuste']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Bellegarde', 'H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Castelletto']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Pele', 'Jakobs', 'Embolo']</t>
+  </si>
+  <si>
+    <t>['Sima', 'Camara']</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Clermont</t>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>['Mothiba']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'Dejaegere', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Blas', 'Castelletto', 'Blas']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Jeanvier']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Bamba', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Pele', 'Jakobs', 'Embolo']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Abdelhamid', 'Balogin']</t>
+    <t>['Ganiou', 'Le_Cardinal']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Merdji']</t>
+  </si>
+  <si>
+    <t>['Martin']</t>
+  </si>
+  <si>
+    <t>['Lepenant', 'Cherki']</t>
+  </si>
+  <si>
+    <t>['Bailly', 'Kabore']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi', 'Ratao']</t>
+  </si>
+  <si>
+    <t>['Innocent', 'Laporte', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Del_Castillo', 'Mounie', 'Duverne']</t>
+  </si>
+  <si>
+    <t>['Roure', 'Diallo', 'Gonzalez', 'Diallo']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce', 'Mavididi']</t>
   </si>
 </sst>
 </file>
@@ -558,22 +555,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,25 +578,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -610,28 +607,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,28 +636,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,25 +665,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -697,25 +694,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -726,28 +723,28 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8">
         <v>3</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -758,25 +755,25 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,28 +781,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -816,25 +813,25 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour11.xlsx
+++ b/jour11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Kipembe', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Odobert']</t>
-  </si>
-  <si>
-    <t>['Cajuste']</t>
+    <t>['Ito', 'Abdelhamid', 'Balogin']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand', 'Lienard', 'Djiku']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Jeanvier', 'Dembele']</t>
+  </si>
+  <si>
+    <t>['Duverne', 'Mounie', 'Brassier']</t>
+  </si>
+  <si>
+    <t>['Diallo', 'Michelin', 'Alphonse']</t>
+  </si>
+  <si>
+    <t>['Yoro', 'Gomes', 'David']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Ripart', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Mollet']</t>
+  </si>
+  <si>
+    <t>['Dante']</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>['Rongier', 'Kabore', 'Bailly', 'Ounahi']</t>
+  </si>
+  <si>
+    <t>['Le_Fee', 'Kroupi']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Perrin', 'Bellegarde', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Rodon', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Castelletto']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Pele', 'Jakobs', 'Embolo']</t>
-  </si>
-  <si>
-    <t>['Sima', 'Camara']</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Le_Cardinal']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Merdji']</t>
-  </si>
-  <si>
-    <t>['Martin']</t>
-  </si>
-  <si>
-    <t>['Lepenant', 'Cherki']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi', 'Ratao']</t>
-  </si>
-  <si>
-    <t>['Innocent', 'Laporte', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Mounie', 'Duverne']</t>
-  </si>
-  <si>
-    <t>['Roure', 'Diallo', 'Gonzalez', 'Diallo']</t>
-  </si>
-  <si>
-    <t>['Sainte-Luce', 'Mavididi']</t>
+    <t>['Ratao', 'Ratao', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Rajot', 'Boyer']</t>
+  </si>
+  <si>
+    <t>['Lega']</t>
+  </si>
+  <si>
+    <t>['Gouiri']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Ramos']</t>
+  </si>
+  <si>
+    <t>['Boura', 'Varane', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Maouassa', 'Nordin', 'Germain']</t>
   </si>
 </sst>
 </file>
@@ -549,28 +552,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -578,25 +581,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -604,65 +607,65 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -671,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -680,10 +683,10 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -691,147 +694,147 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour11.xlsx
+++ b/jour11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,115 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Ito', 'Abdelhamid', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Le_Marchand', 'Lienard', 'Djiku']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Jeanvier', 'Dembele']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Mounie', 'Brassier']</t>
-  </si>
-  <si>
-    <t>['Diallo', 'Michelin', 'Alphonse']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Gomes', 'David']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Ripart', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Mollet']</t>
-  </si>
-  <si>
-    <t>['Dante']</t>
+    <t>['Tchato', 'Germain', 'Mavididi', 'Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Maurer', 'Cisse']</t>
+  </si>
+  <si>
+    <t>['Kipembe', 'Soler', 'Ramos']</t>
+  </si>
+  <si>
+    <t>['Brassier', 'Le_Douaron', 'Duverne']</t>
+  </si>
+  <si>
+    <t>['Kroupi', 'Talbi', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Ganago', 'Guessand', 'Guessand']</t>
+  </si>
+  <si>
+    <t>["N'Diaye", 'Vidal']</t>
+  </si>
+  <si>
+    <t>['Dante', 'Beka', 'Attal']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Lepenant']</t>
+  </si>
+  <si>
+    <t>['Dallinga']</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Angers</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>['Rongier', 'Kabore', 'Bailly', 'Ounahi']</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Kroupi']</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Ratao', 'Ratao', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Boyer']</t>
-  </si>
-  <si>
-    <t>['Lega']</t>
-  </si>
-  <si>
-    <t>['Gouiri']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Ramos']</t>
-  </si>
-  <si>
-    <t>['Boura', 'Varane', 'Valencia']</t>
-  </si>
-  <si>
-    <t>['Maouassa', 'Nordin', 'Germain']</t>
+    <t>['Boura', 'Sylla']</t>
+  </si>
+  <si>
+    <t>['Bain', 'Dembele']</t>
+  </si>
+  <si>
+    <t>['Bailly']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Masson', 'Capelle']</t>
+  </si>
+  <si>
+    <t>['Fonte', 'Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Santamaria']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +540,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,10 +552,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,12 +564,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -593,16 +584,16 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -622,13 +613,13 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -636,7 +627,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -651,21 +642,21 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -680,16 +671,16 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -709,16 +700,16 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -738,24 +729,24 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,24 +755,24 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -793,24 +784,24 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -825,16 +816,16 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour11.xlsx
+++ b/jour11.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Ito', 'Abdelhamid', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Le_Marchand', 'Lienard', 'Djiku']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Jeanvier', 'Dembele']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Mounie', 'Brassier']</t>
-  </si>
-  <si>
-    <t>['Diallo', 'Michelin', 'Alphonse']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Gomes', 'David']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Ripart', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Mollet']</t>
-  </si>
-  <si>
-    <t>['Dante']</t>
+    <t>['Caqueret', 'Cherki', 'Caqueret']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Alioui', 'Bamba']</t>
+  </si>
+  <si>
+    <t>['Borges', 'Wieteska']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Ben_Seguir']</t>
+  </si>
+  <si>
+    <t>['Laborde', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Lebas']</t>
+  </si>
+  <si>
+    <t>['Ramos']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>['Rongier', 'Kabore', 'Bailly', 'Ounahi']</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Kroupi']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Ratao', 'Ratao', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Boyer']</t>
-  </si>
-  <si>
-    <t>['Lega']</t>
-  </si>
-  <si>
-    <t>['Gouiri']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Ramos']</t>
-  </si>
-  <si>
-    <t>['Boura', 'Varane', 'Valencia']</t>
-  </si>
-  <si>
-    <t>['Maouassa', 'Nordin', 'Germain']</t>
+    <t>['Castelletto', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Conte', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Varane', 'Medina']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi', 'Spierings']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Dugimont', 'Jeanvier']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Ounahi', 'Rongier']</t>
+  </si>
+  <si>
+    <t>['Lemarechal', 'Le_Douaron', 'Brassier']</t>
+  </si>
+  <si>
+    <t>['Talbi', 'Pelon', 'Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Santamaria', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Moalida', 'Serhuis']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,15 +660,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,15 +718,15 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,15 +747,15 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,15 +776,15 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -810,10 +810,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>

--- a/jour11.xlsx
+++ b/jour11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,40 +40,70 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Tchato', 'Germain', 'Mavididi', 'Sainte-Luce']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Maurer', 'Cisse']</t>
-  </si>
-  <si>
-    <t>['Kipembe', 'Soler', 'Ramos']</t>
-  </si>
-  <si>
-    <t>['Brassier', 'Le_Douaron', 'Duverne']</t>
-  </si>
-  <si>
-    <t>['Kroupi', 'Talbi', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Guessand', 'Guessand']</t>
-  </si>
-  <si>
-    <t>["N'Diaye", 'Vidal']</t>
-  </si>
-  <si>
-    <t>['Dante', 'Beka', 'Attal']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Lepenant']</t>
-  </si>
-  <si>
-    <t>['Dallinga']</t>
+    <t>['Burlet', 'Yoro', 'Cabella', 'Fonte']</t>
+  </si>
+  <si>
+    <t>['Jeanvier', 'Lipinski', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Kroupi', 'Innocent', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Cisse']</t>
+  </si>
+  <si>
+    <t>['Maouassa']</t>
+  </si>
+  <si>
+    <t>['Embolo', 'Jakobs']</t>
+  </si>
+  <si>
+    <t>['Ugbo']</t>
+  </si>
+  <si>
+    <t>['Vidal', 'Alphonse']</t>
+  </si>
+  <si>
+    <t>['Masson']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Clermont</t>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>PSG</t>
@@ -82,73 +112,46 @@
     <t>Brest</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Reims</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
+    <t>OM</t>
+  </si>
+  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Boura', 'Sylla']</t>
-  </si>
-  <si>
-    <t>['Bain', 'Dembele']</t>
-  </si>
-  <si>
-    <t>['Bailly']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Masson', 'Capelle']</t>
-  </si>
-  <si>
-    <t>['Fonte', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Santamaria']</t>
+    <t>['Mollet', 'Guessand', 'Blas']</t>
+  </si>
+  <si>
+    <t>['Fortes']</t>
+  </si>
+  <si>
+    <t>['Sanches']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi', 'Desler']</t>
+  </si>
+  <si>
+    <t>['Flips']</t>
+  </si>
+  <si>
+    <t>['Laborde', 'Beka', 'Pepe']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Balerdi']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Bercola', 'Tagliafico']</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -555,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -569,7 +572,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -584,13 +587,13 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -598,7 +601,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -613,13 +616,13 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -627,7 +630,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -639,16 +642,16 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -656,7 +659,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -668,16 +671,16 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -685,10 +688,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -697,27 +700,27 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -726,19 +729,19 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -746,7 +749,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -755,7 +758,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -764,18 +767,18 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -784,7 +787,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -793,18 +796,18 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -813,19 +816,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour11.xlsx
+++ b/jour11.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Balde', 'Balde', 'Salmier']</t>
-  </si>
-  <si>
-    <t>['Cisse']</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Wahi', 'Germain']</t>
-  </si>
-  <si>
-    <t>['Pele', 'Jakobs']</t>
-  </si>
-  <si>
-    <t>['Coco', 'Coco']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Alphonse']</t>
-  </si>
-  <si>
-    <t>['Payet', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Sima', 'Alioui']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Merdji']</t>
+    <t>['Pellenard', 'Lipinski', 'Bain', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Henrique', 'Jakobs']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Diallo']</t>
+  </si>
+  <si>
+    <t>['Corduan', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Balerdi']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Perrin', 'Sanson']</t>
+  </si>
+  <si>
+    <t>['Massolin', 'Cisse']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'David']</t>
+  </si>
+  <si>
+    <t>['Attal']</t>
+  </si>
+  <si>
+    <t>['Khazri']</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lille</t>
+    <t>OL</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>['Lemarechal', 'Mounie']</t>
+    <t>['Aboukhlal', 'Ratao', 'Desler']</t>
+  </si>
+  <si>
+    <t>['Simon']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Wooh', 'Theate', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Pelon', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Sanchez']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Diop', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Kipembe', 'Sanches', 'Ruiz', 'Ramos']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Medina', 'Pereira']</t>
+    <t>['Zeneli']</t>
+  </si>
+  <si>
+    <t>['Tavares']</t>
+  </si>
+  <si>
+    <t>['Pereira', 'Sylla', 'Pereira', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Soler', 'Verrati', 'Verrati']</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Ripart', 'Porozo']</t>
+  </si>
+  <si>
+    <t>['Cherki', 'Cherki']</t>
+  </si>
+  <si>
+    <t>['Theate', 'Terrier', 'Santamaria']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,15 +631,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,12 +747,12 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -793,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>2</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>3</v>

--- a/jour11.xlsx
+++ b/jour11.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,127 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Pellenard', 'Lipinski', 'Bain', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Henrique', 'Jakobs']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Diallo']</t>
-  </si>
-  <si>
-    <t>['Corduan', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Balerdi']</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Perrin', 'Sanson']</t>
-  </si>
-  <si>
-    <t>['Massolin', 'Cisse']</t>
-  </si>
-  <si>
-    <t>['Gomes', 'David']</t>
-  </si>
-  <si>
-    <t>['Attal']</t>
-  </si>
-  <si>
-    <t>['Khazri']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Sanches', 'Soler', 'Neymar']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Santamaria', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Tolisso']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Le_Goff', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Sylla', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Danois']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Ajaccio</t>
+    <t>OM</t>
   </si>
   <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lille</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>['Aboukhlal', 'Ratao', 'Desler']</t>
-  </si>
-  <si>
-    <t>['Simon']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Zeneli']</t>
-  </si>
-  <si>
-    <t>['Tavares']</t>
-  </si>
-  <si>
-    <t>['Pereira', 'Sylla', 'Pereira', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Soler', 'Verrati', 'Verrati']</t>
-  </si>
-  <si>
-    <t>['Salmier', 'Ripart', 'Porozo']</t>
-  </si>
-  <si>
-    <t>['Cherki', 'Cherki']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Terrier', 'Santamaria']</t>
+    <t>['Aboukhlal', 'Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Ganago']</t>
+  </si>
+  <si>
+    <t>['Pele', 'Maripan', 'Pele', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Kabore']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Masson', 'Guillaume']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Bryan']</t>
+  </si>
+  <si>
+    <t>['Martin', 'Yoro']</t>
+  </si>
+  <si>
+    <t>['Borges', 'Borges']</t>
+  </si>
+  <si>
+    <t>['Brassier', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Palaversa']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +552,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="K4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
       </c>
       <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>4</v>
       </c>
       <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+      <c r="K11">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/jour11.xlsx
+++ b/jour11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,124 +46,115 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Neymar', 'Sanches', 'Soler', 'Neymar']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Santamaria', 'Santamaria']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Tolisso']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Hamouma']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Danois']</t>
+    <t>['Aguilar', 'Maripan', 'Ben_Seguir', 'Jakobs']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Sanches', 'Mbappe']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Bellegarde', 'Gameiro']</t>
+  </si>
+  <si>
+    <t>['Hamouma', 'Silla', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Kroupi', 'Le_Goff']</t>
+  </si>
+  <si>
+    <t>['Laborde', 'Pepe', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'Dallinga']</t>
+  </si>
+  <si>
+    <t>['Theate', 'Theate']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
     <t>PSG</t>
   </si>
   <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Strasbourg</t>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>OM</t>
+    <t>Lille</t>
   </si>
   <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>['Aboukhlal', 'Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Ganago']</t>
-  </si>
-  <si>
-    <t>['Pele', 'Maripan', 'Pele', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Gigot', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Masson', 'Guillaume']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Yoro']</t>
-  </si>
-  <si>
-    <t>['Borges', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Brassier', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Odobert', 'Palaversa']</t>
+    <t>['Danois', 'Danois']</t>
+  </si>
+  <si>
+    <t>['Zeneli', 'Serhuis', 'Zeneli']</t>
+  </si>
+  <si>
+    <t>['Germain', 'Wahi', 'Germain']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Payet', 'Payet']</t>
+  </si>
+  <si>
+    <t>['Rajot']</t>
+  </si>
+  <si>
+    <t>['Blas', 'Delort']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Cherki', 'Tagliafico']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson', 'Gudmundsson']</t>
   </si>
 </sst>
 </file>
@@ -561,10 +552,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -573,33 +564,33 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -608,68 +599,68 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -678,25 +669,25 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -704,77 +695,77 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -783,7 +774,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -792,59 +783,59 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -853,60 +844,60 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/jour11.xlsx
+++ b/jour11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,115 +46,124 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Aguilar', 'Maripan', 'Ben_Seguir', 'Jakobs']</t>
-  </si>
-  <si>
-    <t>['Mendes', 'Sanches', 'Mbappe']</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Bellegarde', 'Gameiro']</t>
-  </si>
-  <si>
-    <t>['Hamouma', 'Silla', "N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Pelon', 'Kroupi', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Laborde', 'Pepe', 'Brahimi']</t>
-  </si>
-  <si>
-    <t>['Spierings', 'Dallinga']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Theate']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Corduan', 'Masson', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Le_Douaron', 'Del_Castillo', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Bailly', 'Payet']</t>
+  </si>
+  <si>
+    <t>['Delaine', 'Djiku']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson', 'Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Zeneli', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Attal', 'Pepe']</t>
+  </si>
+  <si>
+    <t>['Medina']</t>
+  </si>
+  <si>
+    <t>['Massolin']</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>['Danois', 'Danois']</t>
-  </si>
-  <si>
-    <t>['Zeneli', 'Serhuis', 'Zeneli']</t>
-  </si>
-  <si>
-    <t>['Germain', 'Wahi', 'Germain']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Payet', 'Payet']</t>
-  </si>
-  <si>
-    <t>['Rajot']</t>
-  </si>
-  <si>
-    <t>['Blas', 'Delort']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Cherki', 'Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson', 'Gudmundsson']</t>
+    <t>['Silla']</t>
+  </si>
+  <si>
+    <t>['Lepenant']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Ramos', 'Mbappe', 'Kipembe']</t>
+  </si>
+  <si>
+    <t>['Henrique', 'Embolo', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Bain', 'Da_Costa', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Savanier', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Van_den_Boomen', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Simon']</t>
+  </si>
+  <si>
+    <t>['Talbi', 'Pelon']</t>
   </si>
 </sst>
 </file>
@@ -552,10 +561,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -564,33 +573,33 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -599,130 +608,130 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -730,42 +739,42 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -774,7 +783,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -783,51 +792,51 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -835,69 +844,69 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
